--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/Testcase/Testcase____DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/Testcase/Testcase____DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{707EB201-68F9-45A0-BD81-BCDDE75E9FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7C58F5-3C34-43CF-A417-4FCADD82C8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="990" windowWidth="24855" windowHeight="15315" xr2:uid="{B2DE494C-9A78-4548-A745-AFB96CD5CAE1}"/>
+    <workbookView xWindow="-27285" yWindow="2640" windowWidth="24855" windowHeight="15315" xr2:uid="{B2DE494C-9A78-4548-A745-AFB96CD5CAE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
